--- a/classfiers/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
+++ b/classfiers/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5679012345679012</v>
+        <v>0.8114035087719298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7229862475442044</v>
+        <v>0.893719806763285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8700073046018991</v>
+        <v>0.9775118510810498</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9177057356608479</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9822352081811542</v>
+        <v>0.9997687593941496</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9865951742627347</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9989481373265158</v>
+        <v>0.9999132847728061</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9135135135135135</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9548022598870056</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9865951742627347</v>
+        <v>0.9973045822102425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992111029948868</v>
+        <v>0.9995059575704737</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8754399789860783</v>
+        <v>0.9569438732408393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.9956989247311828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9137369183235056</v>
+        <v>0.9744427156325435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9700803506208912</v>
+        <v>0.9953399705636958</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
+++ b/classfiers/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8114035087719298</v>
+        <v>0.7076271186440678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.893719806763285</v>
+        <v>0.8246913580246914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775118510810498</v>
+        <v>0.9440145653163405</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997687593941496</v>
+        <v>0.9979692587794545</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9712643678160919</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9919999999999999</v>
+        <v>0.9854227405247813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999132847728061</v>
+        <v>0.9999649872203354</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999299744406708</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9766081871345029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9973045822102425</v>
+        <v>0.9823529411764705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995059575704737</v>
+        <v>0.9987745527117399</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9569438732408393</v>
+        <v>0.9299165027662697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9956989247311828</v>
+        <v>0.9893491124260356</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9744427156325435</v>
+        <v>0.9549147664116877</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9953399705636958</v>
+        <v>0.9881306676937083</v>
       </c>
     </row>
   </sheetData>
